--- a/filter_word.xlsx
+++ b/filter_word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,22 @@
   </si>
   <si>
     <t>영진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렉카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택경매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -688,60 +704,114 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/filter_word.xlsx
+++ b/filter_word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="214">
   <si>
     <t>문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,619 @@
   <si>
     <t>급매</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004bd</t>
+  </si>
+  <si>
+    <t>쿠폰모아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국해수욕장때문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무에타이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원주에서하는 대회임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무관한 정치이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고창고등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?? 왜나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남해고속도로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자중등부</t>
+  </si>
+  <si>
+    <t>양양군수배 전국산악자전거대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVO</t>
+  </si>
+  <si>
+    <t>네비게이션 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속도로 나열하는경우발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백일장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대산 전국학생백일장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드컵공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원소개하는 글있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험설계사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험설계사 모집글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국립수목원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실물원 나열한 글 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼국지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발대식</t>
+  </si>
+  <si>
+    <t>방방곡곡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방방곡곡체험여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광덕초등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광덕초등학교는 화천군에 초등학교</t>
+  </si>
+  <si>
+    <t>위키피디아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위키피디아 긁은 자료 검색됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴애리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도 해수욕장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공민왕</t>
+  </si>
+  <si>
+    <t>?? 이상한 퀴즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구상권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재판문에 관한내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌호수 동호…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국불교대학</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼국지언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔지니어링</t>
+  </si>
+  <si>
+    <t>엔지니어링 회사근무내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼국지언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유압호스 광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공압자재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공압자재 광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀문화축제</t>
+  </si>
+  <si>
+    <t>전국축제정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이급식관리지원센터</t>
+  </si>
+  <si>
+    <t>위생컨설팅</t>
+  </si>
+  <si>
+    <t>홍천여행</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로아티아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 여행정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네티즌리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행책소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검단산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남에 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화재감정관실</t>
+  </si>
+  <si>
+    <t>토왕골</t>
+  </si>
+  <si>
+    <t>운남성</t>
+  </si>
+  <si>
+    <t>중국임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송계리</t>
+  </si>
+  <si>
+    <t>대가면</t>
+  </si>
+  <si>
+    <t>머리말</t>
+  </si>
+  <si>
+    <t>향로봉</t>
+  </si>
+  <si>
+    <t>에덴동산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>율법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예루살렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창세기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전도사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스라엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여호와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국 관광사진 공모전</t>
+  </si>
+  <si>
+    <t>입선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성형외과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경복궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가야금병창</t>
+  </si>
+  <si>
+    <t>독재정치</t>
+  </si>
+  <si>
+    <t>알벨트</t>
+  </si>
+  <si>
+    <t>계곡면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지명유래 중 비관련적인거 하나 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토정비결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학교사회</t>
+  </si>
+  <si>
+    <t>전북체육중학교</t>
+  </si>
+  <si>
+    <t>사이클대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임난수</t>
+  </si>
+  <si>
+    <t>세종시 고려말 임남수 장군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백과사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울지역 맛집 리스트</t>
+  </si>
+  <si>
+    <t>한나라당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당선리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 양양 캠핑장 리스트</t>
+  </si>
+  <si>
+    <t>잘놀자연구소 핸드폰 전화번호</t>
+  </si>
+  <si>
+    <t>사주</t>
+  </si>
+  <si>
+    <t>불패의 리더 이순신, 그는 어떻게 이겼을까</t>
+  </si>
+  <si>
+    <t>서울 상암동 월드컵 경기장 인근</t>
+  </si>
+  <si>
+    <t>난지캠핌장위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.tourvis.co.kr</t>
+  </si>
+  <si>
+    <t>전국 해수욕장</t>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국 방방곡곡 반려견과 함께하기 좋은 여행지</t>
+  </si>
+  <si>
+    <t>책제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주유소경매</t>
+  </si>
+  <si>
+    <t>한강다리 28개 한강다리 사연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WikiMedia</t>
+  </si>
+  <si>
+    <t>월별 전국 지역축제</t>
+  </si>
+  <si>
+    <t>소백산철쭉제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">교과서 속 구석구석 체험학습 </t>
+  </si>
+  <si>
+    <t>춘천 마임축제</t>
+  </si>
+  <si>
+    <t>해운대기장방송</t>
+  </si>
+  <si>
+    <t>방수업체</t>
+  </si>
+  <si>
+    <t>울진 죽변 도시계획도로 발굴현장 현장설명회</t>
+  </si>
+  <si>
+    <t>대회 참가자 신청 현황</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불우 이우돕기 성금 </t>
+  </si>
+  <si>
+    <t>아이돌 그룹이 전성기</t>
+  </si>
+  <si>
+    <t>할리데이비슨은 오토바이를 팔지 않는다</t>
+  </si>
+  <si>
+    <t>토속항아리김치</t>
+  </si>
+  <si>
+    <t>복권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청보리가 익어가는 고창 보리나라</t>
+  </si>
+  <si>
+    <t>한국세무사회 자격시험 시험장 공개</t>
+  </si>
+  <si>
+    <t>국정감사 자료분석</t>
+  </si>
+  <si>
+    <t>‘Happy Together’ 전</t>
+  </si>
+  <si>
+    <t>활동경력</t>
+  </si>
+  <si>
+    <t>전원주택전문시공업체</t>
+  </si>
+  <si>
+    <t>쌈지스페이스</t>
+  </si>
+  <si>
+    <t>제작렌탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하수구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대구 북부 시외버스 터미널) 버스 시간표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누수차단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전기안전관리대행업체 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">발주처 </t>
+  </si>
+  <si>
+    <t>시공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원받아 솔직하게 작성</t>
+  </si>
+  <si>
+    <t>소정의 원고료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 업체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체의 지원</t>
+  </si>
+  <si>
+    <t>호스팅받고 광고한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어문급수</t>
+  </si>
+  <si>
+    <t>중국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백두대간 민속기행</t>
+  </si>
+  <si>
+    <t>김설송(018-318-1640)(서영대학교 평생교육원 강사)</t>
+  </si>
+  <si>
+    <t>사주풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열화당</t>
+  </si>
+  <si>
+    <t>강른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국체전</t>
+  </si>
+  <si>
+    <t>인기명산 200</t>
+  </si>
+  <si>
+    <t>산 이름 소재지 봄 여름 가을 겨울</t>
+  </si>
+  <si>
+    <t>강원도 가볼만한 피서지 여름휴가 100선</t>
+  </si>
+  <si>
+    <t>대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산림조합</t>
   </si>
 </sst>
 </file>
@@ -232,7 +845,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,13 +1146,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -812,6 +1431,840 @@
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>191</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>192</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>198</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>210</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>211</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/filter_word.xlsx
+++ b/filter_word.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="261">
   <si>
     <t>문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -800,6 +800,163 @@
   </si>
   <si>
     <t>산림조합</t>
+  </si>
+  <si>
+    <t>어린이철학 &amp; 산</t>
+  </si>
+  <si>
+    <t>해파랑길 이야기에 너무 집중됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국공군비행장 일람</t>
+  </si>
+  <si>
+    <t>나열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부시외버스터미널</t>
+  </si>
+  <si>
+    <t>대구북부시외버스터미널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여수장거리택시</t>
+  </si>
+  <si>
+    <t>대구북부정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북부정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련전용비행장</t>
+  </si>
+  <si>
+    <t>현재의 기상특보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 버스터미널 시외버스시간표</t>
+  </si>
+  <si>
+    <t>세종고속.시외버스터미널</t>
+  </si>
+  <si>
+    <t>판촉물</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한반도 공항일람 </t>
+  </si>
+  <si>
+    <t>KCC 종합건축 자재</t>
+  </si>
+  <si>
+    <t>강릉시 성산면은 대구머리찜 골목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 지식백과</t>
+  </si>
+  <si>
+    <t>한국도로공사 고속도로 주말 교통예보</t>
+  </si>
+  <si>
+    <t>귀성길' 아침부터 고속도로</t>
+  </si>
+  <si>
+    <t>한국도로공사는 긴 추석 연휴 첫날인 30일 오전 귀성차량들이 증가</t>
+  </si>
+  <si>
+    <t>추석교통정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀경길에 오른 차들이 쏟아지면서 정체가 본격화</t>
+  </si>
+  <si>
+    <t>인싸투어♧국내투어</t>
+  </si>
+  <si>
+    <t>인천공항택시예약</t>
+  </si>
+  <si>
+    <t>포항시외버스터미널에</t>
+  </si>
+  <si>
+    <t>인천대형택시</t>
+  </si>
+  <si>
+    <t>인천공항픽업</t>
+  </si>
+  <si>
+    <t>춘천지방법원</t>
+  </si>
+  <si>
+    <t>사건번호</t>
+  </si>
+  <si>
+    <t>대한체육회장배 2010 전국당구대회</t>
+  </si>
+  <si>
+    <t>자전거 여행 코스 김대익(32)씨와 김수진(29)씨</t>
+  </si>
+  <si>
+    <t>어원 연구방법</t>
+  </si>
+  <si>
+    <t>가야산 해인사</t>
+  </si>
+  <si>
+    <t>좌선용</t>
+  </si>
+  <si>
+    <t>명당보는법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50년대 애창군가</t>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천공항광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거 여행코스 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기감편</t>
+  </si>
+  <si>
+    <t>풍수지리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;한암스님과의 인연&gt;</t>
+  </si>
+  <si>
+    <t>경상북도 울진군 에 소재하는 관동팔경 중의 망양정 과 월송정</t>
+  </si>
+  <si>
+    <t>관동팔경이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1146,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2265,6 +2422,231 @@
     <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>214</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>216</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>218</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>233</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>236</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>237</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>238</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>239</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>240</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>241</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>243</v>
+      </c>
+      <c r="B190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>244</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>248</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>257</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>258</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
